--- a/experiment_results/7812P126.xlsx
+++ b/experiment_results/7812P126.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1257"/>
+  <dimension ref="A1:I1057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P3</t>
+          <t>PRODUCTCODE: 173018P1</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: This tour is our longest at 1 hour 45 minutes and covers 2 miles of historic Austin including West 6th street, Guy Town, the Warehouse District and a drink stop at the iconic Driskill Hotel. Voted by the Austin Chronicle 2022 Critic's Choice "Best Nightlife Activity."</t>
+          <t>Summarized description: Discover parts of East Austin that never made it into a guidebook on the ever-changing street art scene. By the end of the walk, we guarantee you'll know more about public art than most local residents.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin Murder Walk </t>
+          <t>Title: Austin Street Art Walking Tour</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 252</t>
+          <t>TotalReviews: 89</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P12</t>
+          <t>PRODUCTCODE: 387557P2</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation offers its 2.5 hour Ghost and Bat Segway tour once daily. Bats are seasonal and usually fly from March to October every year. We visit some of Austin's haunted downtown hotels and buildings.</t>
+          <t>Summarized description: Take a walk through the story of Austin, beginning and ending in what was once a roaring red light district. Along the way, we'll explore the rich history of Austin and discover how it became the vibrant and dynamic city it is today.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: Austin Famous Ghost and Bat Segway Tour</t>
+          <t xml:space="preserve">Title: The Story of Austin: Downtown History Walking Tour </t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 142</t>
+          <t>TotalReviews: 85</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25218P1</t>
+          <t>PRODUCTCODE: 441526P2</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: This 4-hour brewery tour in Austin allows you to have the freedom to enjoy three local breweries. This is a great activity for bachelor and bachelorette parties, birthday parties.</t>
+          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: Brewery Tour: Experience Austin in a Half Day</t>
+          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 113</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16592P2</t>
+          <t>PRODUCTCODE: 134057P2</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Our flagship tour covers a bit of everything about downtown Austin. Pedal through historic districts and dive into the art and history of Texas’ capital city. Enjoy highlights such as: Lady bird lake, Texas State Capitol, the Congress Bridge.</t>
+          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Austin Icons Bicycle Tour</t>
+          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 89</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 173018P1</t>
+          <t>PRODUCTCODE: 7635P1</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Discover parts of East Austin that never made it into a guidebook on the ever-changing street art scene. By the end of the walk, we guarantee you'll know more about public art than most local residents.</t>
+          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Austin Street Art Walking Tour</t>
+          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 89</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387557P2</t>
+          <t>PRODUCTCODE: 51066P5</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: Take a walk through the story of Austin, beginning and ending in what was once a roaring red light district. Along the way, we'll explore the rich history of Austin and discover how it became the vibrant and dynamic city it is today.</t>
+          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Story of Austin: Downtown History Walking Tour </t>
+          <t>Title: Food Is My Best Friend Tour in Austin</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 85</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5718P2</t>
+          <t>PRODUCTCODE: 87115P53</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: This small-group tour (14 passenger max) is the one to do if you want a comprehensive look at what makes this city what it is. Possible stops (only two from this list)-TX State Cemetery, the Austin Central Library, and the Pfluger bridge.</t>
+          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Downtown Austin Small-Group Panoramic Sightseeing Tour </t>
+          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 78</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 441526P1</t>
+          <t>PRODUCTCODE: 53526P6</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Austin's music scene with our Downtown Live Music Walking Tour. Our expert guides, brimming with charisma and deep knowledge of Austin's musical roots, will lead you on an unforgettable journey.</t>
+          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Live Music Pub Crawl</t>
+          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 78</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P3</t>
+          <t>PRODUCTCODE: 87115P52</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tours include historical and cultural information about Austin. All groups start off with an orientation followed by one segway rider training. Choose from 3 departure times throughout the day, each one with a slightly different focus.</t>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 291969P2</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Sunset Bat Tour offers stunning views of the Downtown Austin Skyline. 1.5 million Mexican Free-Tailed bats emerge from the famous bat bridge.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Guided Sunset Bat Kayak Tour in Austin</t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 441526P2</t>
+          <t>PRODUCTCODE: 10428P22</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
+          <t>Summarized description: The BBQ and Brew Shuttle takes you to one of Austin's best-kept secrets. Indulge in mouthwatering BBQ and sample a variety of handcrafted brews. The 4-hour shuttle experience is priced at $60 per person.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
+          <t xml:space="preserve">Title: Austin BBQ and Brew Shuttle </t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P2</t>
+          <t>PRODUCTCODE: 212799P1</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
+          <t>Summarized description: Downtown Austin is a diverse city with rich history and culture. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more about Austin.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
+          <t>Title: Tipster Downtown Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7635P1</t>
+          <t>PRODUCTCODE: 380918P4</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
+          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
+          <t>Title: South Austin Food Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P5</t>
+          <t>PRODUCTCODE: 439046P1</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
+          <t>Summarized description: Tour takes approximately 3-4 hours after which you will be dropped off back at your hotel. Alcohol is not included with the tour but can be purchased at all stops along the way.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Food Is My Best Friend Tour in Austin</t>
+          <t>Title: Private Guided Food Tour of Austin Neighborhoods</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P2</t>
+          <t>PRODUCTCODE: 186732P2</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and culture of Austin as we walk through downtown. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more.</t>
+          <t>Summarized description: Learn little-known stories about the city, get inside tips on the best coffee shops, restaurants, and live music venues, and explore the city like a local. This tour helps you avoid tourist traps to make the most of your visit to Austin.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Tipster Pay-What-You-Want Downtown Austin Walking Tour</t>
+          <t>Title: Walking Tour: Morning in Austin</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P1</t>
+          <t>PRODUCTCODE: 74447P4</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
+          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
+          <t>Title: Historic Austin Segway Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P53</t>
+          <t>PRODUCTCODE: 174788P1</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
+          <t>Summarized description: This is the first ever tour in Austin that educates consumers about the new Hemp CBD Trends, Businesses and Products. Each tour end will focus on Legislation, Wellness, or Food.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
+          <t>Title: Walking Hemp Tour - Downtown Austin</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 311647P1</t>
+          <t>PRODUCTCODE: 317335P1</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
+          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: A Feast of the Weird Walking Tour in Austin</t>
+          <t>Title: Taste of Austin Food Tour by Pedicab</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P9</t>
+          <t>PRODUCTCODE: 75909P270</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
+          <t>Summarized description: Riding a bike is one of the best ways to see the specialness that is Austin. Let us share some fun quirky stories and fact about Austin over some mouth-watering food.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Brew and Que Tour in Austin</t>
+          <t>Title: Austin Beer and Food Tour by Bike</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 383052P1</t>
+          <t>PRODUCTCODE: 328978P1</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: All-inclusive Austin craft beer experience. Tour some of the most famous breweries in Austin. Revel in beer knowledge, a beer-inspired meal, comfortable transportation, and lots of delicious beer.</t>
+          <t>Summarized description: We'll enjoy courses from a hand-picked selection of the city's most delicious and unique vendors. No tiny tasting spoons here, you'll leave satisfied (since everything's bigger in Texas)!</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Austin Original Half-Day Brewery Tour</t>
+          <t>Title: Austin Farmer's Market 10-Course Lunch Tasting and Tour</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 56929P1</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Walking brewery tour takes you from downtown Austin to three local breweries. All tours pick up and drop off at the Austin Visitor Center, and run for 4-5 hours.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Small-Group Austin Craft Beer and Brewery Tour</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P6</t>
+          <t>PRODUCTCODE: 75909P280</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
+          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
+          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 57338P13</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is known as the 'Music Capital of the World' Stroll along the iconic and legendary venues that have launched countless musical careers. From blues to country, rock to indie, every step unveils the unique sounds and stories.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: The Downtown Austin Music History Walking Tour</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P22</t>
+          <t>PRODUCTCODE: 6462P25</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: The BBQ and Brew Shuttle takes you to one of Austin's best-kept secrets. Indulge in mouthwatering BBQ and sample a variety of handcrafted brews. The 4-hour shuttle experience is priced at $60 per person.</t>
+          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin BBQ and Brew Shuttle </t>
+          <t>Title: Historical Segway Food Tour in Austin</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P1</t>
+          <t>PRODUCTCODE: 24380P1625</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Take an open-air electric shuttle from your hotel/accommodation to the Austin Visitor's Center. During this 3-hour tour, you will stop at three of the best bistros in Austin.</t>
+          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Austin Beer and Brewery Tour</t>
+          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19103P2</t>
+          <t>PRODUCTCODE: 380918P7</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
+          <t>Summarized description: Walk through central Austin with about 15 stops along the way. Learn about the significance of each location and Austin's unique culture. Get insider suggestions about tourist destinations, restaurants, and drink establishments.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Austin Street Art Segway Tour</t>
+          <t>Title: Morning Downtown Walking Tour</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328824P1</t>
+          <t>PRODUCTCODE: 104357P154</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: The Lost Legends of Texas Pub Crawl is for ages 21+ and features some of the most incredible true stories and lesser-known aspects of the founding of Texas. This tour explores the period from the earliest recorded expeditions to Texas to its statehood within the United States.</t>
+          <t>Summarized description: Get to know the city through the eyes of a local guide. With no set itinerary, you can customize the tour or leave it to the local for an enlightening introduction to the city.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Lost Legends of Texas Pub Crawl in Austin</t>
+          <t>Title: Private Custom Austin Walking Tour with Local Guide</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 209615P13</t>
+          <t>PRODUCTCODE: 209615P221</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: "Austin's Treasures: A Heroic Downtown Discovery Walk" is a journey through the soul of one of America's most vibrant cities. This tour transforms you into a city explorer, uncovering hidden gems and experiencing the essence of Austin’s spirit.</t>
+          <t>Summarized description: Walk through Austin’s rich history, stunning architecture, and vibrant cultural scene. Stroll down historic avenues, marvel at architectural wonders, and immerse yourself in the local culture.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Austin’s Treasures: A Heroic Downtown Discovery Walk</t>
+          <t>Title: Austin Explorer: A Vibrant USA Heritage Walk</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104585P1</t>
+          <t>PRODUCTCODE: 311647P13</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
+          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
+          <t>Title:  A Feast of the Weird Walking Tour in Austin *Single tickets</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P1</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16354,3006 +16354,6 @@
       <c r="H1057" t="inlineStr"/>
       <c r="I1057" t="inlineStr"/>
     </row>
-    <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>Summarized description: Downtown Austin is a diverse city with rich history and culture. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more about Austin.</t>
-        </is>
-      </c>
-      <c r="B1058" t="inlineStr"/>
-      <c r="C1058" t="inlineStr"/>
-      <c r="D1058" t="inlineStr"/>
-      <c r="E1058" t="inlineStr"/>
-      <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr"/>
-      <c r="H1058" t="inlineStr"/>
-      <c r="I1058" t="inlineStr"/>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>Title: Tipster Downtown Austin Private Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1059" t="inlineStr"/>
-      <c r="C1059" t="inlineStr"/>
-      <c r="D1059" t="inlineStr"/>
-      <c r="E1059" t="inlineStr"/>
-      <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr"/>
-      <c r="H1059" t="inlineStr"/>
-      <c r="I1059" t="inlineStr"/>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1060" t="inlineStr"/>
-      <c r="C1060" t="inlineStr"/>
-      <c r="D1060" t="inlineStr"/>
-      <c r="E1060" t="inlineStr"/>
-      <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr"/>
-      <c r="H1060" t="inlineStr"/>
-      <c r="I1060" t="inlineStr"/>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1061" t="inlineStr"/>
-      <c r="C1061" t="inlineStr"/>
-      <c r="D1061" t="inlineStr"/>
-      <c r="E1061" t="inlineStr"/>
-      <c r="F1061" t="inlineStr"/>
-      <c r="G1061" t="inlineStr"/>
-      <c r="H1061" t="inlineStr"/>
-      <c r="I1061" t="inlineStr"/>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 49202P3</t>
-        </is>
-      </c>
-      <c r="B1062" t="inlineStr"/>
-      <c r="C1062" t="inlineStr"/>
-      <c r="D1062" t="inlineStr"/>
-      <c r="E1062" t="inlineStr"/>
-      <c r="F1062" t="inlineStr"/>
-      <c r="G1062" t="inlineStr"/>
-      <c r="H1062" t="inlineStr"/>
-      <c r="I1062" t="inlineStr"/>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="inlineStr">
-        <is>
-          <t>Summarized description: The Bats and Ghosts 5k Tour unveils a darker side of Austin. Austin was home to the first documented serial killer in America. Many of the sites and stories on this tour are morbid and macabre.</t>
-        </is>
-      </c>
-      <c r="B1063" t="inlineStr"/>
-      <c r="C1063" t="inlineStr"/>
-      <c r="D1063" t="inlineStr"/>
-      <c r="E1063" t="inlineStr"/>
-      <c r="F1063" t="inlineStr"/>
-      <c r="G1063" t="inlineStr"/>
-      <c r="H1063" t="inlineStr"/>
-      <c r="I1063" t="inlineStr"/>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="inlineStr">
-        <is>
-          <t>Title: Small-Group Haunted Bats and Ghosts 5k Running Tour from Austin</t>
-        </is>
-      </c>
-      <c r="B1064" t="inlineStr"/>
-      <c r="C1064" t="inlineStr"/>
-      <c r="D1064" t="inlineStr"/>
-      <c r="E1064" t="inlineStr"/>
-      <c r="F1064" t="inlineStr"/>
-      <c r="G1064" t="inlineStr"/>
-      <c r="H1064" t="inlineStr"/>
-      <c r="I1064" t="inlineStr"/>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1065" t="inlineStr"/>
-      <c r="C1065" t="inlineStr"/>
-      <c r="D1065" t="inlineStr"/>
-      <c r="E1065" t="inlineStr"/>
-      <c r="F1065" t="inlineStr"/>
-      <c r="G1065" t="inlineStr"/>
-      <c r="H1065" t="inlineStr"/>
-      <c r="I1065" t="inlineStr"/>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1066" t="inlineStr"/>
-      <c r="C1066" t="inlineStr"/>
-      <c r="D1066" t="inlineStr"/>
-      <c r="E1066" t="inlineStr"/>
-      <c r="F1066" t="inlineStr"/>
-      <c r="G1066" t="inlineStr"/>
-      <c r="H1066" t="inlineStr"/>
-      <c r="I1066" t="inlineStr"/>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 399258P1</t>
-        </is>
-      </c>
-      <c r="B1067" t="inlineStr"/>
-      <c r="C1067" t="inlineStr"/>
-      <c r="D1067" t="inlineStr"/>
-      <c r="E1067" t="inlineStr"/>
-      <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr"/>
-      <c r="H1067" t="inlineStr"/>
-      <c r="I1067" t="inlineStr"/>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>Summarized description: Make new friends, have fun, and discover Austin's buzzing nightlife scene. The tour allows you to bypass the crowds and get VIP entry at 4–5 venues. Shots are included along the way, as well as special drink deals.</t>
-        </is>
-      </c>
-      <c r="B1068" t="inlineStr"/>
-      <c r="C1068" t="inlineStr"/>
-      <c r="D1068" t="inlineStr"/>
-      <c r="E1068" t="inlineStr"/>
-      <c r="F1068" t="inlineStr"/>
-      <c r="G1068" t="inlineStr"/>
-      <c r="H1068" t="inlineStr"/>
-      <c r="I1068" t="inlineStr"/>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>Title: Downtown Austin VIP Bar &amp; Club Crawl</t>
-        </is>
-      </c>
-      <c r="B1069" t="inlineStr"/>
-      <c r="C1069" t="inlineStr"/>
-      <c r="D1069" t="inlineStr"/>
-      <c r="E1069" t="inlineStr"/>
-      <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr"/>
-      <c r="H1069" t="inlineStr"/>
-      <c r="I1069" t="inlineStr"/>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1070" t="inlineStr"/>
-      <c r="C1070" t="inlineStr"/>
-      <c r="D1070" t="inlineStr"/>
-      <c r="E1070" t="inlineStr"/>
-      <c r="F1070" t="inlineStr"/>
-      <c r="G1070" t="inlineStr"/>
-      <c r="H1070" t="inlineStr"/>
-      <c r="I1070" t="inlineStr"/>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1071" t="inlineStr"/>
-      <c r="C1071" t="inlineStr"/>
-      <c r="D1071" t="inlineStr"/>
-      <c r="E1071" t="inlineStr"/>
-      <c r="F1071" t="inlineStr"/>
-      <c r="G1071" t="inlineStr"/>
-      <c r="H1071" t="inlineStr"/>
-      <c r="I1071" t="inlineStr"/>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 380918P6</t>
-        </is>
-      </c>
-      <c r="B1072" t="inlineStr"/>
-      <c r="C1072" t="inlineStr"/>
-      <c r="D1072" t="inlineStr"/>
-      <c r="E1072" t="inlineStr"/>
-      <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr"/>
-      <c r="H1072" t="inlineStr"/>
-      <c r="I1072" t="inlineStr"/>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>Summarized description: This tour stops at multiple locations for photos, such as the Greeting From Austin Mural. This tour is excellent for small groups that wish to get the best Austin sightseeing experience possible.</t>
-        </is>
-      </c>
-      <c r="B1073" t="inlineStr"/>
-      <c r="C1073" t="inlineStr"/>
-      <c r="D1073" t="inlineStr"/>
-      <c r="E1073" t="inlineStr"/>
-      <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="inlineStr"/>
-      <c r="I1073" t="inlineStr"/>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>Title: Private Austin Sightseer Tour</t>
-        </is>
-      </c>
-      <c r="B1074" t="inlineStr"/>
-      <c r="C1074" t="inlineStr"/>
-      <c r="D1074" t="inlineStr"/>
-      <c r="E1074" t="inlineStr"/>
-      <c r="F1074" t="inlineStr"/>
-      <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="inlineStr"/>
-      <c r="I1074" t="inlineStr"/>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1075" t="inlineStr"/>
-      <c r="C1075" t="inlineStr"/>
-      <c r="D1075" t="inlineStr"/>
-      <c r="E1075" t="inlineStr"/>
-      <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr"/>
-      <c r="I1075" t="inlineStr"/>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1076" t="inlineStr"/>
-      <c r="C1076" t="inlineStr"/>
-      <c r="D1076" t="inlineStr"/>
-      <c r="E1076" t="inlineStr"/>
-      <c r="F1076" t="inlineStr"/>
-      <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr"/>
-      <c r="I1076" t="inlineStr"/>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 387557P3</t>
-        </is>
-      </c>
-      <c r="B1077" t="inlineStr"/>
-      <c r="C1077" t="inlineStr"/>
-      <c r="D1077" t="inlineStr"/>
-      <c r="E1077" t="inlineStr"/>
-      <c r="F1077" t="inlineStr"/>
-      <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr"/>
-      <c r="I1077" t="inlineStr"/>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>Summarized description: Walk through the seedy underbelly of Austin's red light district. The ladies of the night were tough, resourceful women, surviving in a man's world. As the city grew, so did our scandal.</t>
-        </is>
-      </c>
-      <c r="B1078" t="inlineStr"/>
-      <c r="C1078" t="inlineStr"/>
-      <c r="D1078" t="inlineStr"/>
-      <c r="E1078" t="inlineStr"/>
-      <c r="F1078" t="inlineStr"/>
-      <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr"/>
-      <c r="I1078" t="inlineStr"/>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>Title: Scandal &amp; Vice in Austin: Historical Walking Tour Downtown</t>
-        </is>
-      </c>
-      <c r="B1079" t="inlineStr"/>
-      <c r="C1079" t="inlineStr"/>
-      <c r="D1079" t="inlineStr"/>
-      <c r="E1079" t="inlineStr"/>
-      <c r="F1079" t="inlineStr"/>
-      <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr"/>
-      <c r="I1079" t="inlineStr"/>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1080" t="inlineStr"/>
-      <c r="C1080" t="inlineStr"/>
-      <c r="D1080" t="inlineStr"/>
-      <c r="E1080" t="inlineStr"/>
-      <c r="F1080" t="inlineStr"/>
-      <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr"/>
-      <c r="I1080" t="inlineStr"/>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1081" t="inlineStr"/>
-      <c r="C1081" t="inlineStr"/>
-      <c r="D1081" t="inlineStr"/>
-      <c r="E1081" t="inlineStr"/>
-      <c r="F1081" t="inlineStr"/>
-      <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr"/>
-      <c r="I1081" t="inlineStr"/>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 324527P1</t>
-        </is>
-      </c>
-      <c r="B1082" t="inlineStr"/>
-      <c r="C1082" t="inlineStr"/>
-      <c r="D1082" t="inlineStr"/>
-      <c r="E1082" t="inlineStr"/>
-      <c r="F1082" t="inlineStr"/>
-      <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr"/>
-      <c r="I1082" t="inlineStr"/>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy a personalized Tour of Austin and surrounding Hill Country with up to 14 guests. We have some great spots we know you'll love or we can plan a unique trip just for you. Great for a bachelor/ettes party’s or can be a site seeing family trip!</t>
-        </is>
-      </c>
-      <c r="B1083" t="inlineStr"/>
-      <c r="C1083" t="inlineStr"/>
-      <c r="D1083" t="inlineStr"/>
-      <c r="E1083" t="inlineStr"/>
-      <c r="F1083" t="inlineStr"/>
-      <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr"/>
-      <c r="I1083" t="inlineStr"/>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>Title: Personalized Tour of Austin and Surrounding Hill Country</t>
-        </is>
-      </c>
-      <c r="B1084" t="inlineStr"/>
-      <c r="C1084" t="inlineStr"/>
-      <c r="D1084" t="inlineStr"/>
-      <c r="E1084" t="inlineStr"/>
-      <c r="F1084" t="inlineStr"/>
-      <c r="G1084" t="inlineStr"/>
-      <c r="H1084" t="inlineStr"/>
-      <c r="I1084" t="inlineStr"/>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1085" t="inlineStr"/>
-      <c r="C1085" t="inlineStr"/>
-      <c r="D1085" t="inlineStr"/>
-      <c r="E1085" t="inlineStr"/>
-      <c r="F1085" t="inlineStr"/>
-      <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr"/>
-      <c r="I1085" t="inlineStr"/>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1086" t="inlineStr"/>
-      <c r="C1086" t="inlineStr"/>
-      <c r="D1086" t="inlineStr"/>
-      <c r="E1086" t="inlineStr"/>
-      <c r="F1086" t="inlineStr"/>
-      <c r="G1086" t="inlineStr"/>
-      <c r="H1086" t="inlineStr"/>
-      <c r="I1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 380918P4</t>
-        </is>
-      </c>
-      <c r="B1087" t="inlineStr"/>
-      <c r="C1087" t="inlineStr"/>
-      <c r="D1087" t="inlineStr"/>
-      <c r="E1087" t="inlineStr"/>
-      <c r="F1087" t="inlineStr"/>
-      <c r="G1087" t="inlineStr"/>
-      <c r="H1087" t="inlineStr"/>
-      <c r="I1087" t="inlineStr"/>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
-        </is>
-      </c>
-      <c r="B1088" t="inlineStr"/>
-      <c r="C1088" t="inlineStr"/>
-      <c r="D1088" t="inlineStr"/>
-      <c r="E1088" t="inlineStr"/>
-      <c r="F1088" t="inlineStr"/>
-      <c r="G1088" t="inlineStr"/>
-      <c r="H1088" t="inlineStr"/>
-      <c r="I1088" t="inlineStr"/>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>Title: South Austin Food Tour</t>
-        </is>
-      </c>
-      <c r="B1089" t="inlineStr"/>
-      <c r="C1089" t="inlineStr"/>
-      <c r="D1089" t="inlineStr"/>
-      <c r="E1089" t="inlineStr"/>
-      <c r="F1089" t="inlineStr"/>
-      <c r="G1089" t="inlineStr"/>
-      <c r="H1089" t="inlineStr"/>
-      <c r="I1089" t="inlineStr"/>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1090" t="inlineStr"/>
-      <c r="C1090" t="inlineStr"/>
-      <c r="D1090" t="inlineStr"/>
-      <c r="E1090" t="inlineStr"/>
-      <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr"/>
-      <c r="H1090" t="inlineStr"/>
-      <c r="I1090" t="inlineStr"/>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1091" t="inlineStr"/>
-      <c r="C1091" t="inlineStr"/>
-      <c r="D1091" t="inlineStr"/>
-      <c r="E1091" t="inlineStr"/>
-      <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr"/>
-      <c r="H1091" t="inlineStr"/>
-      <c r="I1091" t="inlineStr"/>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 212799P10</t>
-        </is>
-      </c>
-      <c r="B1092" t="inlineStr"/>
-      <c r="C1092" t="inlineStr"/>
-      <c r="D1092" t="inlineStr"/>
-      <c r="E1092" t="inlineStr"/>
-      <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr"/>
-      <c r="H1092" t="inlineStr"/>
-      <c r="I1092" t="inlineStr"/>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn about the unique history and culture of Austin over craft cocktails with a local guide. Pick your guide's brain about Austin’s history, music, art, and must-see attractions.</t>
-        </is>
-      </c>
-      <c r="B1093" t="inlineStr"/>
-      <c r="C1093" t="inlineStr"/>
-      <c r="D1093" t="inlineStr"/>
-      <c r="E1093" t="inlineStr"/>
-      <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="inlineStr"/>
-      <c r="I1093" t="inlineStr"/>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>Title: Tipster Austin Craft Cocktails Private Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1094" t="inlineStr"/>
-      <c r="C1094" t="inlineStr"/>
-      <c r="D1094" t="inlineStr"/>
-      <c r="E1094" t="inlineStr"/>
-      <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="inlineStr"/>
-      <c r="I1094" t="inlineStr"/>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1095" t="inlineStr"/>
-      <c r="C1095" t="inlineStr"/>
-      <c r="D1095" t="inlineStr"/>
-      <c r="E1095" t="inlineStr"/>
-      <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr"/>
-      <c r="I1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
-      <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
-      <c r="E1096" t="inlineStr"/>
-      <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr"/>
-      <c r="I1096" t="inlineStr"/>
-    </row>
-    <row r="1097">
-      <c r="A1097" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 439046P1</t>
-        </is>
-      </c>
-      <c r="B1097" t="inlineStr"/>
-      <c r="C1097" t="inlineStr"/>
-      <c r="D1097" t="inlineStr"/>
-      <c r="E1097" t="inlineStr"/>
-      <c r="F1097" t="inlineStr"/>
-      <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr"/>
-      <c r="I1097" t="inlineStr"/>
-    </row>
-    <row r="1098">
-      <c r="A1098" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour takes approximately 3-4 hours after which you will be dropped off back at your hotel. Alcohol is not included with the tour but can be purchased at all stops along the way.</t>
-        </is>
-      </c>
-      <c r="B1098" t="inlineStr"/>
-      <c r="C1098" t="inlineStr"/>
-      <c r="D1098" t="inlineStr"/>
-      <c r="E1098" t="inlineStr"/>
-      <c r="F1098" t="inlineStr"/>
-      <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr"/>
-      <c r="I1098" t="inlineStr"/>
-    </row>
-    <row r="1099">
-      <c r="A1099" t="inlineStr">
-        <is>
-          <t>Title: Private Guided Food Tour of Austin Neighborhoods</t>
-        </is>
-      </c>
-      <c r="B1099" t="inlineStr"/>
-      <c r="C1099" t="inlineStr"/>
-      <c r="D1099" t="inlineStr"/>
-      <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr"/>
-      <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr"/>
-      <c r="I1099" t="inlineStr"/>
-    </row>
-    <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1100" t="inlineStr"/>
-      <c r="C1100" t="inlineStr"/>
-      <c r="D1100" t="inlineStr"/>
-      <c r="E1100" t="inlineStr"/>
-      <c r="F1100" t="inlineStr"/>
-      <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr"/>
-      <c r="I1100" t="inlineStr"/>
-    </row>
-    <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1101" t="inlineStr"/>
-      <c r="C1101" t="inlineStr"/>
-      <c r="D1101" t="inlineStr"/>
-      <c r="E1101" t="inlineStr"/>
-      <c r="F1101" t="inlineStr"/>
-      <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr"/>
-      <c r="I1101" t="inlineStr"/>
-    </row>
-    <row r="1102">
-      <c r="A1102" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 186732P2</t>
-        </is>
-      </c>
-      <c r="B1102" t="inlineStr"/>
-      <c r="C1102" t="inlineStr"/>
-      <c r="D1102" t="inlineStr"/>
-      <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr"/>
-      <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr"/>
-      <c r="I1102" t="inlineStr"/>
-    </row>
-    <row r="1103">
-      <c r="A1103" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn little-known stories about the city, get inside tips on the best coffee shops, restaurants, and live music venues, and explore the city like a local. This tour helps you avoid tourist traps to make the most of your visit to Austin.</t>
-        </is>
-      </c>
-      <c r="B1103" t="inlineStr"/>
-      <c r="C1103" t="inlineStr"/>
-      <c r="D1103" t="inlineStr"/>
-      <c r="E1103" t="inlineStr"/>
-      <c r="F1103" t="inlineStr"/>
-      <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="inlineStr"/>
-      <c r="I1103" t="inlineStr"/>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>Title: Walking Tour: Morning in Austin</t>
-        </is>
-      </c>
-      <c r="B1104" t="inlineStr"/>
-      <c r="C1104" t="inlineStr"/>
-      <c r="D1104" t="inlineStr"/>
-      <c r="E1104" t="inlineStr"/>
-      <c r="F1104" t="inlineStr"/>
-      <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="inlineStr"/>
-      <c r="I1104" t="inlineStr"/>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
-      <c r="C1105" t="inlineStr"/>
-      <c r="D1105" t="inlineStr"/>
-      <c r="E1105" t="inlineStr"/>
-      <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr"/>
-      <c r="I1105" t="inlineStr"/>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
-      <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr"/>
-      <c r="E1106" t="inlineStr"/>
-      <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr"/>
-      <c r="I1106" t="inlineStr"/>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 46479P10</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
-      <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
-      <c r="E1107" t="inlineStr"/>
-      <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr"/>
-      <c r="I1107" t="inlineStr"/>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>Summarized description: This is the most peaceful tour offered in Austin. You will launch from Joe's Crab Shack. Enormous snapper turtles and plentiful birds will be seen on this small-group tour.</t>
-        </is>
-      </c>
-      <c r="B1108" t="inlineStr"/>
-      <c r="C1108" t="inlineStr"/>
-      <c r="D1108" t="inlineStr"/>
-      <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr"/>
-      <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr"/>
-      <c r="I1108" t="inlineStr"/>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>Title: Small-Group Lady Bird Lake Kayak Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1109" t="inlineStr"/>
-      <c r="C1109" t="inlineStr"/>
-      <c r="D1109" t="inlineStr"/>
-      <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr"/>
-      <c r="I1109" t="inlineStr"/>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1110" t="inlineStr"/>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr"/>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr"/>
-      <c r="I1110" t="inlineStr"/>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>Category: ['Eco-Tours']</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr"/>
-      <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr"/>
-      <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr"/>
-      <c r="I1111" t="inlineStr"/>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P9</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr"/>
-      <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr"/>
-      <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr"/>
-      <c r="I1112" t="inlineStr"/>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr"/>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr"/>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr"/>
-      <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr"/>
-      <c r="I1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>Title: Ultimate Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr"/>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr"/>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr"/>
-      <c r="I1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr"/>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr"/>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr"/>
-      <c r="I1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr"/>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr"/>
-      <c r="E1116" t="inlineStr"/>
-      <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr"/>
-      <c r="I1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P8</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr"/>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr"/>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr"/>
-      <c r="H1117" t="inlineStr"/>
-      <c r="I1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr"/>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr"/>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr"/>
-      <c r="H1118" t="inlineStr"/>
-      <c r="I1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>Title: Ultimate Segway Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr"/>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr"/>
-      <c r="I1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
-      <c r="H1120" t="inlineStr"/>
-      <c r="I1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr"/>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr"/>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr"/>
-      <c r="H1121" t="inlineStr"/>
-      <c r="I1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 16592P5</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr"/>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr"/>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr"/>
-      <c r="H1122" t="inlineStr"/>
-      <c r="I1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin has more than 250 live music venues and thousands of acts to fill them. Join a tour that explores the places that helped Austin make its name. Take in a local show and learn how the city evolved from the sleepy college town and capital of Texas.</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr"/>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr"/>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr"/>
-      <c r="H1123" t="inlineStr"/>
-      <c r="I1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>Title: Austin-Music Bicycle Tour</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr"/>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr"/>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr"/>
-      <c r="I1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
-      <c r="I1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr"/>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr"/>
-      <c r="I1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P4</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
-      <c r="I1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr"/>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr"/>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr"/>
-      <c r="G1128" t="inlineStr"/>
-      <c r="H1128" t="inlineStr"/>
-      <c r="I1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>Title: Historic Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr"/>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr"/>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr"/>
-      <c r="I1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
-      <c r="I1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr"/>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr"/>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr"/>
-      <c r="G1131" t="inlineStr"/>
-      <c r="H1131" t="inlineStr"/>
-      <c r="I1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 10428P18</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr"/>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr"/>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr"/>
-      <c r="H1132" t="inlineStr"/>
-      <c r="I1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>Summarized description: Get great shots in front of iconic Austin sites like the Capitol building, Greetings From Austin postcard mural, and more. Use our fun photos props to add a little extra flair to your shots.</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr"/>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr"/>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
-      <c r="H1133" t="inlineStr"/>
-      <c r="I1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>Title: Austin Street Art Photo Tour with Local Guide</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr"/>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr"/>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr"/>
-      <c r="I1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr"/>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr"/>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr"/>
-      <c r="I1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>Category: ['Workshops and Classes']</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr"/>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr"/>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr"/>
-      <c r="I1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P29</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr"/>
-      <c r="I1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>Summarized description: Your adventure will include you riding a Segway taking in historical information about Austin. You will also visit some amazing highlights of the city. The tour will end with a tour of some of Austin's most famous landmarks.</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr"/>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr"/>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr"/>
-      <c r="I1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>Title: Good Morning Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr"/>
-      <c r="I1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr"/>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
-      <c r="H1140" t="inlineStr"/>
-      <c r="I1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr"/>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
-      <c r="H1141" t="inlineStr"/>
-      <c r="I1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 19103P1</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr"/>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
-      <c r="H1142" t="inlineStr"/>
-      <c r="I1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a trip back to Austin's sordid past with tales of tragedy, murder, and unexplainable mystery. This 90-minute segway tour will take you on a guided journey that visits the Capitol, the Driskill Hotel, and other spectacular haunts.</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr"/>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr"/>
-      <c r="I1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>Title: Austin Haunted Legends Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr"/>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr"/>
-      <c r="I1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr"/>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr"/>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr"/>
-      <c r="I1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr"/>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr"/>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
-      <c r="H1146" t="inlineStr"/>
-      <c r="I1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5682AUSCITY</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr"/>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr"/>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
-      <c r="H1147" t="inlineStr"/>
-      <c r="I1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr"/>
-      <c r="I1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>Title: Austin Sightseeing Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
-      <c r="I1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-      <c r="I1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr"/>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr"/>
-      <c r="H1151" t="inlineStr"/>
-      <c r="I1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 49202P4</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
-      <c r="H1152" t="inlineStr"/>
-      <c r="I1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn about some of Austin's best bars, nightlife spots, hidden gems, and historical markers. Plus, have a chance to sample some ofAustin's finest brews along the route.</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr"/>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
-      <c r="H1153" t="inlineStr"/>
-      <c r="I1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>Title: Texas Beer 5k Running Tour in Downtown Austin</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr"/>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
-      <c r="H1154" t="inlineStr"/>
-      <c r="I1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr"/>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr"/>
-      <c r="H1155" t="inlineStr"/>
-      <c r="I1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr"/>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr"/>
-      <c r="H1156" t="inlineStr"/>
-      <c r="I1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 317335P1</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr"/>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
-      <c r="H1157" t="inlineStr"/>
-      <c r="I1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr"/>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
-      <c r="H1158" t="inlineStr"/>
-      <c r="I1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>Title: Taste of Austin Food Tour by Pedicab</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr"/>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr"/>
-      <c r="H1159" t="inlineStr"/>
-      <c r="I1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1160" t="inlineStr"/>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
-      <c r="H1160" t="inlineStr"/>
-      <c r="I1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
-      <c r="I1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 75909P270</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
-      <c r="I1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>Summarized description: Riding a bike is one of the best ways to see the specialness that is Austin. Let us share some fun quirky stories and fact about Austin over some mouth-watering food.</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr"/>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr"/>
-      <c r="H1163" t="inlineStr"/>
-      <c r="I1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>Title: Austin Beer and Food Tour by Bike</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr"/>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
-      <c r="H1164" t="inlineStr"/>
-      <c r="I1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
-      <c r="I1165" t="inlineStr"/>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
-      <c r="H1166" t="inlineStr"/>
-      <c r="I1166" t="inlineStr"/>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 410126P1</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
-      <c r="H1167" t="inlineStr"/>
-      <c r="I1167" t="inlineStr"/>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>Summarized description: The Texas Capitol is one of America’s most distinguished state capitol buildings. The Paramount Theatre is a live theater and cinema located in downtown Austin. The Jacob Lamour Block is a row of two-story commercial buildings designed and built in 1976.</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr"/>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr"/>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
-      <c r="H1168" t="inlineStr"/>
-      <c r="I1168" t="inlineStr"/>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>Title: Downtown Austin Photo Shoot Walk</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr"/>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
-      <c r="H1169" t="inlineStr"/>
-      <c r="I1169" t="inlineStr"/>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr"/>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
-      <c r="H1170" t="inlineStr"/>
-      <c r="I1170" t="inlineStr"/>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
-      <c r="I1171" t="inlineStr"/>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 328978P1</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
-      <c r="I1172" t="inlineStr"/>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Summarized description: We'll enjoy courses from a hand-picked selection of the city's most delicious and unique vendors. No tiny tasting spoons here, you'll leave satisfied (since everything's bigger in Texas)!</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-      <c r="H1173" t="inlineStr"/>
-      <c r="I1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>Title: Austin Farmer's Market 10-Course Lunch Tasting and Tour</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
-      <c r="I1174" t="inlineStr"/>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
-      <c r="I1175" t="inlineStr"/>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr"/>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
-      <c r="H1176" t="inlineStr"/>
-      <c r="I1176" t="inlineStr"/>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P9</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr"/>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
-      <c r="H1177" t="inlineStr"/>
-      <c r="I1177" t="inlineStr"/>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>Summarized description: GPS action adventure game designed for play in downtown Austin, Texas. Find hidden clues, solve tricky puzzles and bring magical things to life. Put your team together, use a tablet to explore your surroundings.</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr"/>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
-      <c r="H1178" t="inlineStr"/>
-      <c r="I1178" t="inlineStr"/>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>Title: Austin GPS Action Adventure</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr"/>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
-      <c r="H1179" t="inlineStr"/>
-      <c r="I1179" t="inlineStr"/>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr"/>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr"/>
-      <c r="H1180" t="inlineStr"/>
-      <c r="I1180" t="inlineStr"/>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>Category: ['Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr"/>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
-      <c r="H1181" t="inlineStr"/>
-      <c r="I1181" t="inlineStr"/>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 212799P4</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr"/>
-      <c r="I1182" t="inlineStr"/>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Summarized description: Get ready to be spooked as we dive into Austin's dark and sinister side. We'll fact-check all the most famous local ghost stories and urban legends. Hear true-crime tales of terror, trysts, and deceit. Not for the faint of heart!</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-      <c r="H1183" t="inlineStr"/>
-      <c r="I1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>Title: Tipster Haunts &amp; Horrors of Austin Private Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr"/>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
-      <c r="H1184" t="inlineStr"/>
-      <c r="I1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr"/>
-      <c r="I1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr"/>
-      <c r="I1186" t="inlineStr"/>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 24380P1626</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr"/>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr"/>
-      <c r="I1187" t="inlineStr"/>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr"/>
-      <c r="I1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr"/>
-      <c r="I1189" t="inlineStr"/>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr"/>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr"/>
-      <c r="I1190" t="inlineStr"/>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr"/>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr"/>
-      <c r="I1191" t="inlineStr"/>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 281487P40</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr"/>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr"/>
-      <c r="I1192" t="inlineStr"/>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>Summarized description: Delve into the happening Austin streets and feel the uniquely Austin character of its one-of-a-kind downtown. Explore at your own pace feel Austin's distinct southern spirit and take in its charm.</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr"/>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr"/>
-      <c r="I1193" t="inlineStr"/>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>Title: Austin Scavenger Hunt Walking Tour and Game</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr"/>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr"/>
-      <c r="H1194" t="inlineStr"/>
-      <c r="I1194" t="inlineStr"/>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
-      <c r="H1195" t="inlineStr"/>
-      <c r="I1195" t="inlineStr"/>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
-      <c r="I1196" t="inlineStr"/>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P25</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
-      <c r="I1197" t="inlineStr"/>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr"/>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
-      <c r="H1198" t="inlineStr"/>
-      <c r="I1198" t="inlineStr"/>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>Title: Historical Segway Food Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr"/>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
-      <c r="H1199" t="inlineStr"/>
-      <c r="I1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
-      <c r="I1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr"/>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr"/>
-      <c r="I1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 24380P1625</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr"/>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr"/>
-      <c r="I1202" t="inlineStr"/>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr"/>
-      <c r="I1203" t="inlineStr"/>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
-      <c r="I1204" t="inlineStr"/>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr"/>
-      <c r="I1205" t="inlineStr"/>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-      <c r="I1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P3</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr"/>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr"/>
-      <c r="I1207" t="inlineStr"/>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr"/>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr"/>
-      <c r="I1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>Title: Segway Dinner Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr"/>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr"/>
-      <c r="I1209" t="inlineStr"/>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr"/>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr"/>
-      <c r="I1210" t="inlineStr"/>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr"/>
-      <c r="I1211" t="inlineStr"/>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 101382P1</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr"/>
-      <c r="I1212" t="inlineStr"/>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the stories hiding just out of reach of thousands of visitors and residents. Explore the human events that have shaped and continue to shape this unique Austin-area community. Enjoy connections to Georgetown, Texas even many locals overlook.</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr"/>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr"/>
-      <c r="I1213" t="inlineStr"/>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>Title: Historic Downtown Walking Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr"/>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr"/>
-      <c r="I1214" t="inlineStr"/>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr"/>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr"/>
-      <c r="I1215" t="inlineStr"/>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr"/>
-      <c r="I1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 454873P1</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr"/>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr"/>
-      <c r="I1217" t="inlineStr"/>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>Summarized description: The Brewery 5K Running Series includes a free beer and swag. The Bullock Texas State History Museum offers a self guided tour of the city's history. Terry Black's BBQ is one of Austin's most famous BBQ joints.</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr"/>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr"/>
-      <c r="I1218" t="inlineStr"/>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Brewery 5K Fun Run, BBQ, and Texas History Museum in Austin </t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr"/>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr"/>
-      <c r="I1219" t="inlineStr"/>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr"/>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr"/>
-      <c r="I1220" t="inlineStr"/>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr"/>
-      <c r="I1221" t="inlineStr"/>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 104357P154</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr"/>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr"/>
-      <c r="I1222" t="inlineStr"/>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>Summarized description: Get to know the city through the eyes of a local guide. With no set itinerary, you can customize the tour or leave it to the local for an enlightening introduction to the city.</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr"/>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr"/>
-      <c r="I1223" t="inlineStr"/>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>Title: Private Custom Austin Walking Tour with Local Guide</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr"/>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr"/>
-      <c r="I1224" t="inlineStr"/>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr"/>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr"/>
-      <c r="I1225" t="inlineStr"/>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
-      <c r="I1226" t="inlineStr"/>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 263756P1</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr"/>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr"/>
-      <c r="I1227" t="inlineStr"/>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Summarized description: Professional guide who knows Austin and it's beer. Behind the scenes facility tour at one brewery. Hang with locals, eat at an Austin food truck. Visit 3 different breweries in one day.</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
-      <c r="I1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>Title: Half-Day Brewery and Craft Beer Tour in Austin with Tastings</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr"/>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
-      <c r="H1229" t="inlineStr"/>
-      <c r="I1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr"/>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr"/>
-      <c r="I1230" t="inlineStr"/>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
-      <c r="I1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 10428P12</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr"/>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
-      <c r="H1232" t="inlineStr"/>
-      <c r="I1232" t="inlineStr"/>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>Summarized description: This BBQ and Wine shuttle is great for solo travelers, couples, and small groups wanting to take a break from Austin for the best of the Hill Country.</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr"/>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr"/>
-      <c r="H1233" t="inlineStr"/>
-      <c r="I1233" t="inlineStr"/>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>Title: Austin's Salt Lick and Winery Shuttle - Group Option</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr"/>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr"/>
-      <c r="I1234" t="inlineStr"/>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr"/>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr"/>
-      <c r="H1235" t="inlineStr"/>
-      <c r="I1235" t="inlineStr"/>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr"/>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr"/>
-      <c r="I1236" t="inlineStr"/>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 147265P2</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr"/>
-      <c r="I1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>Summarized description: San Marcos Food Tours explores downtown San Marcos, TX, Monday-Friday, 11:30AM-2:30PM. Each tour ticket is ALL-INCLUSIVE and consists of a range of signature menu items, unique to each destination.</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr"/>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
-      <c r="H1238" t="inlineStr"/>
-      <c r="I1238" t="inlineStr"/>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>Title: A Taste of San Marcos Walking Progressive Lunch Tour</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr"/>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr"/>
-      <c r="I1239" t="inlineStr"/>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr"/>
-      <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr"/>
-      <c r="I1240" t="inlineStr"/>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr"/>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr"/>
-      <c r="I1241" t="inlineStr"/>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 180366P2</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr"/>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr"/>
-      <c r="I1242" t="inlineStr"/>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin, Texas, prides itself on its weirdness. On this tour, you'll encounter the weird of the paranormal sort. Along the way, you can sample spirits of the drinking kind. Alcohol is not included in the price of the tour.</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr"/>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr"/>
-      <c r="I1243" t="inlineStr"/>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>Title: Austin Boos and Booze Haunted Pub Crawl</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr"/>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr"/>
-      <c r="I1244" t="inlineStr"/>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr"/>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
-      <c r="H1245" t="inlineStr"/>
-      <c r="I1245" t="inlineStr"/>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr"/>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr"/>
-      <c r="I1246" t="inlineStr"/>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 311647P13</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr"/>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr"/>
-      <c r="I1247" t="inlineStr"/>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr"/>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr"/>
-      <c r="I1248" t="inlineStr"/>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Title:  A Feast of the Weird Walking Tour in Austin *Single tickets</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr"/>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr"/>
-      <c r="I1249" t="inlineStr"/>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr"/>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr"/>
-      <c r="I1250" t="inlineStr"/>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr"/>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
-      <c r="H1251" t="inlineStr"/>
-      <c r="I1251" t="inlineStr"/>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90519P13</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr"/>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr"/>
-      <c r="I1252" t="inlineStr"/>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr"/>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
-      <c r="H1253" t="inlineStr"/>
-      <c r="I1253" t="inlineStr"/>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Title: Austin Hill Country Brewery Tour</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr"/>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-      <c r="H1254" t="inlineStr"/>
-      <c r="I1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr"/>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr"/>
-      <c r="H1255" t="inlineStr"/>
-      <c r="I1255" t="inlineStr"/>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr"/>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
-      <c r="H1256" t="inlineStr"/>
-      <c r="I1256" t="inlineStr"/>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr"/>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
-      <c r="H1257" t="inlineStr"/>
-      <c r="I1257" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/7812P126.xlsx
+++ b/experiment_results/7812P126.xlsx
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Performing Arts']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Food Festivals']</t>
+          <t>Category: ['Food Festivals', 'Entertainment']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P6</t>
+          <t>PRODUCTCODE: 311647P1</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
+          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
+          <t>Title: A Feast of the Weird Walking Tour in Austin</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 53526P6</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 87115P52</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P22</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: The BBQ and Brew Shuttle takes you to one of Austin's best-kept secrets. Indulge in mouthwatering BBQ and sample a variety of handcrafted brews. The 4-hour shuttle experience is priced at $60 per person.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin BBQ and Brew Shuttle </t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P1</t>
+          <t>PRODUCTCODE: 10428P22</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Downtown Austin is a diverse city with rich history and culture. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more about Austin.</t>
+          <t>Summarized description: The BBQ and Brew Shuttle takes you to one of Austin's best-kept secrets. Indulge in mouthwatering BBQ and sample a variety of handcrafted brews. The 4-hour shuttle experience is priced at $60 per person.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Tipster Downtown Austin Private Walking Tour</t>
+          <t xml:space="preserve">Title: Austin BBQ and Brew Shuttle </t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P4</t>
+          <t>PRODUCTCODE: 212799P1</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
+          <t>Summarized description: Downtown Austin is a diverse city with rich history and culture. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more about Austin.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: South Austin Food Tour</t>
+          <t>Title: Tipster Downtown Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 439046P1</t>
+          <t>PRODUCTCODE: 380918P4</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Tour takes approximately 3-4 hours after which you will be dropped off back at your hotel. Alcohol is not included with the tour but can be purchased at all stops along the way.</t>
+          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Private Guided Food Tour of Austin Neighborhoods</t>
+          <t>Title: South Austin Food Tour</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186732P2</t>
+          <t>PRODUCTCODE: 439046P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Learn little-known stories about the city, get inside tips on the best coffee shops, restaurants, and live music venues, and explore the city like a local. This tour helps you avoid tourist traps to make the most of your visit to Austin.</t>
+          <t>Summarized description: Tour takes approximately 3-4 hours after which you will be dropped off back at your hotel. Alcohol is not included with the tour but can be purchased at all stops along the way.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Walking Tour: Morning in Austin</t>
+          <t>Title: Private Guided Food Tour of Austin Neighborhoods</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P270</t>
+          <t>PRODUCTCODE: 328978P1</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Riding a bike is one of the best ways to see the specialness that is Austin. Let us share some fun quirky stories and fact about Austin over some mouth-watering food.</t>
+          <t>Summarized description: We'll enjoy courses from a hand-picked selection of the city's most delicious and unique vendors. No tiny tasting spoons here, you'll leave satisfied (since everything's bigger in Texas)!</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Austin Beer and Food Tour by Bike</t>
+          <t>Title: Austin Farmer's Market 10-Course Lunch Tasting and Tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328978P1</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: We'll enjoy courses from a hand-picked selection of the city's most delicious and unique vendors. No tiny tasting spoons here, you'll leave satisfied (since everything's bigger in Texas)!</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Austin Farmer's Market 10-Course Lunch Tasting and Tour</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1626</t>
+          <t>PRODUCTCODE: 75909P280</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
+          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
+          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P280</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P8</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Austin Private Tour</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 356901P1</t>
+          <t>PRODUCTCODE: 6462P25</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
+          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
+          <t>Title: Historical Segway Food Tour in Austin</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P25</t>
+          <t>PRODUCTCODE: 24380P1625</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
+          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Historical Segway Food Tour in Austin</t>
+          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1625</t>
+          <t>PRODUCTCODE: 380918P7</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
+          <t>Summarized description: Walk through central Austin with about 15 stops along the way. Learn about the significance of each location and Austin's unique culture. Get insider suggestions about tourist destinations, restaurants, and drink establishments.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
+          <t>Title: Morning Downtown Walking Tour</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P7</t>
+          <t>PRODUCTCODE: 104357P154</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through central Austin with about 15 stops along the way. Learn about the significance of each location and Austin's unique culture. Get insider suggestions about tourist destinations, restaurants, and drink establishments.</t>
+          <t>Summarized description: Get to know the city through the eyes of a local guide. With no set itinerary, you can customize the tour or leave it to the local for an enlightening introduction to the city.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Morning Downtown Walking Tour</t>
+          <t>Title: Private Custom Austin Walking Tour with Local Guide</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104357P154</t>
+          <t>PRODUCTCODE: 209615P221</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know the city through the eyes of a local guide. With no set itinerary, you can customize the tour or leave it to the local for an enlightening introduction to the city.</t>
+          <t>Summarized description: Walk through Austin’s rich history, stunning architecture, and vibrant cultural scene. Stroll down historic avenues, marvel at architectural wonders, and immerse yourself in the local culture.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Private Custom Austin Walking Tour with Local Guide</t>
+          <t>Title: Austin Explorer: A Vibrant USA Heritage Walk</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 209615P221</t>
+          <t>PRODUCTCODE: 54414P97</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through Austin’s rich history, stunning architecture, and vibrant cultural scene. Stroll down historic avenues, marvel at architectural wonders, and immerse yourself in the local culture.</t>
+          <t>Summarized description: Discover some of Austins most famous food trucks while enjoying an AR tour. Take a tour of some of the world's best known food trucks at Austins food truck experience.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Austin Explorer: A Vibrant USA Heritage Walk</t>
+          <t>Title: Local Foods Extravaganza</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>

--- a/experiment_results/7812P126.xlsx
+++ b/experiment_results/7812P126.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1057"/>
+  <dimension ref="A1:I1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Water Sports']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Entertainment', 'Performing Arts', 'City Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Food Festivals', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Food Festivals']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 173018P1</t>
+          <t>PRODUCTCODE: 387557P2</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: Discover parts of East Austin that never made it into a guidebook on the ever-changing street art scene. By the end of the walk, we guarantee you'll know more about public art than most local residents.</t>
+          <t>Summarized description: Take a walk through the story of Austin, beginning and ending in what was once a roaring red light district. Along the way, we'll explore the rich history of Austin and discover how it became the vibrant and dynamic city it is today.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Title: Austin Street Art Walking Tour</t>
+          <t xml:space="preserve">Title: The Story of Austin: Downtown History Walking Tour </t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 89</t>
+          <t>TotalReviews: 85</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387557P2</t>
+          <t>PRODUCTCODE: 441526P1</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: Take a walk through the story of Austin, beginning and ending in what was once a roaring red light district. Along the way, we'll explore the rich history of Austin and discover how it became the vibrant and dynamic city it is today.</t>
+          <t>Summarized description: Discover Austin's music scene with our Downtown Live Music Walking Tour. Our expert guides, brimming with charisma and deep knowledge of Austin's musical roots, will lead you on an unforgettable journey.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Story of Austin: Downtown History Walking Tour </t>
+          <t>Title: Downtown Austin Live Music Pub Crawl</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 85</t>
+          <t>TotalReviews: 78</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7635P1</t>
+          <t>PRODUCTCODE: 10428P17</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
+          <t>Summarized description: Austin's official breakfast is the breakfast taco. Taste-testing your way through inventive tacos and to-die-for queso is a must. Cruise between locations in a comfortable air-conditioned Mercedes Sprinter van.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
+          <t>Title: Austin Breakfast Taco Tour</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P5</t>
+          <t>PRODUCTCODE: 7635P1</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
+          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Food Is My Best Friend Tour in Austin</t>
+          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P53</t>
+          <t>PRODUCTCODE: 51066P5</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
+          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
+          <t>Title: Food Is My Best Friend Tour in Austin</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 311647P1</t>
+          <t>PRODUCTCODE: 87115P53</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
+          <t>Summarized description: Tacos aren’t just for Tuesdays, especially in Austin where there are so many delicious tacos to try. Join us to experience the best tacos that Austin has to offer, while witnessing many must-see places throughout the area.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: A Feast of the Weird Walking Tour in Austin</t>
+          <t>Title: Small-Group Austin Taco Food Walking Tour</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P6</t>
+          <t>PRODUCTCODE: 51066P9</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
+          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
+          <t>Title: Brew and Que Tour in Austin</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 10428P7</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: The AustiNight small-group, limited to a maximum of 7 travelers, 3-hour guided evening tour. Stop at a locally renowned food truck for some mouthwatering Texas BBQ meats.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: AustiNight Small-Group Guided Tour with Dinner in Austin</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 53526P6</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: Private walking tour gives the insides and outs of Austin from a local's perspective. You'll experience the best of food and drink as well as historical facts about the city.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t>Title: Downtown Austin Private Walk: Food, Drinks, and History</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P22</t>
+          <t>PRODUCTCODE: 87115P52</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: The BBQ and Brew Shuttle takes you to one of Austin's best-kept secrets. Indulge in mouthwatering BBQ and sample a variety of handcrafted brews. The 4-hour shuttle experience is priced at $60 per person.</t>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin BBQ and Brew Shuttle </t>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P1</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Downtown Austin is a diverse city with rich history and culture. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more about Austin.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Tipster Downtown Austin Private Walking Tour</t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P4</t>
+          <t>PRODUCTCODE: 10428P22</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
+          <t>Summarized description: The BBQ and Brew Shuttle takes you to one of Austin's best-kept secrets. Indulge in mouthwatering BBQ and sample a variety of handcrafted brews. The 4-hour shuttle experience is priced at $60 per person.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: South Austin Food Tour</t>
+          <t xml:space="preserve">Title: Austin BBQ and Brew Shuttle </t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 439046P1</t>
+          <t>PRODUCTCODE: 104585P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Tour takes approximately 3-4 hours after which you will be dropped off back at your hotel. Alcohol is not included with the tour but can be purchased at all stops along the way.</t>
+          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Private Guided Food Tour of Austin Neighborhoods</t>
+          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P4</t>
+          <t>PRODUCTCODE: 380918P4</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
+          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Historic Austin Segway Tour</t>
+          <t>Title: South Austin Food Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 174788P1</t>
+          <t>PRODUCTCODE: 439046P1</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: This is the first ever tour in Austin that educates consumers about the new Hemp CBD Trends, Businesses and Products. Each tour end will focus on Legislation, Wellness, or Food.</t>
+          <t>Summarized description: Tour takes approximately 3-4 hours after which you will be dropped off back at your hotel. Alcohol is not included with the tour but can be purchased at all stops along the way.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Walking Hemp Tour - Downtown Austin</t>
+          <t>Title: Private Guided Food Tour of Austin Neighborhoods</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 317335P1</t>
+          <t>PRODUCTCODE: 74447P4</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
+          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Taste of Austin Food Tour by Pedicab</t>
+          <t>Title: Historic Austin Segway Tour</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328978P1</t>
+          <t>PRODUCTCODE: 90519P12</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: We'll enjoy courses from a hand-picked selection of the city's most delicious and unique vendors. No tiny tasting spoons here, you'll leave satisfied (since everything's bigger in Texas)!</t>
+          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Austin Farmer's Market 10-Course Lunch Tasting and Tour</t>
+          <t>Title: Austin East Side Brewery Tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1626</t>
+          <t>PRODUCTCODE: 317335P1</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
+          <t>Summarized description: We will meet at Flat Track - a coffee shop conjoined with CycleEast, a bike repair shop. After introductions we’ll pedal to Tamale House, a 3rd generation family owned Mexican restaurant. We will then journey to La Barbeque, a local favorite and staple- Amy’s Ice Cream.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
+          <t>Title: Taste of Austin Food Tour by Pedicab</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75909P280</t>
+          <t>PRODUCTCODE: 218169P3</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
+          <t>Title: Group BBQ Food Tour</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P8</t>
+          <t>PRODUCTCODE: 328978P1</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
+          <t>Summarized description: We'll enjoy courses from a hand-picked selection of the city's most delicious and unique vendors. No tiny tasting spoons here, you'll leave satisfied (since everything's bigger in Texas)!</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Austin Private Tour</t>
+          <t>Title: Austin Farmer's Market 10-Course Lunch Tasting and Tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 356901P1</t>
+          <t>PRODUCTCODE: 218169P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints and their partners within Austin. You will learn a little bit about the history of BBQ and specifically how it got its start in Central Texas. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
+          <t>Title: Private BBQ Tour for 1-3 people</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P25</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Historical Segway Food Tour in Austin</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1625</t>
+          <t>PRODUCTCODE: 75909P280</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
+          <t>Summarized description: This is the first tour of ours that now includes CIDER! The tour includes 1 brewery &amp; 1 cidery. 2 flights of craft drinks and 2 farm to table tacos are included.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
+          <t>Title: East Austin Urban Farms &amp; Brewery Food Tour by Bike</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P7</t>
+          <t>PRODUCTCODE: 6462P25</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through central Austin with about 15 stops along the way. Learn about the significance of each location and Austin's unique culture. Get insider suggestions about tourist destinations, restaurants, and drink establishments.</t>
+          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Morning Downtown Walking Tour</t>
+          <t>Title: Historical Segway Food Tour in Austin</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104357P154</t>
+          <t>PRODUCTCODE: 24380P1625</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know the city through the eyes of a local guide. With no set itinerary, you can customize the tour or leave it to the local for an enlightening introduction to the city.</t>
+          <t>Summarized description: Enjoy a selection of 10 food and drink tastings hand-picked by your foodie local host. From yummy must-tries like BBQ to unique dishes typical of the city such as Tacos; you’re in for a treat.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Private Custom Austin Walking Tour with Local Guide</t>
+          <t>Title: The 10 Tastings of Austin With Locals: Private Food Tour</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 209615P221</t>
+          <t>PRODUCTCODE: 218169P5</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Walk through Austin’s rich history, stunning architecture, and vibrant cultural scene. Stroll down historic avenues, marvel at architectural wonders, and immerse yourself in the local culture.</t>
+          <t>Summarized description: Join me as I take you on a tour of a few of my favorite BBQ joints. You will learn a little bit about the history of BBQ and specifically how it got its start. We will visit a variety of restaurants, from Top 5 in the city to holes-in-the-wall.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Austin Explorer: A Vibrant USA Heritage Walk</t>
+          <t>Title: BBQ Food Tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 54414P97</t>
+          <t>PRODUCTCODE: 104357P154</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Discover some of Austins most famous food trucks while enjoying an AR tour. Take a tour of some of the world's best known food trucks at Austins food truck experience.</t>
+          <t>Summarized description: Get to know the city through the eyes of a local guide. With no set itinerary, you can customize the tour or leave it to the local for an enlightening introduction to the city.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Local Foods Extravaganza</t>
+          <t>Title: Private Custom Austin Walking Tour with Local Guide</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 311647P13</t>
+          <t>PRODUCTCODE: 263756P1</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
+          <t>Summarized description: Professional guide who knows Austin and it's beer. Behind the scenes facility tour at one brewery. Hang with locals, eat at an Austin food truck. Visit 3 different breweries in one day.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title:  A Feast of the Weird Walking Tour in Austin *Single tickets</t>
+          <t>Title: Half-Day Brewery and Craft Beer Tour in Austin with Tastings</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 54414P97</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16354,6 +16354,156 @@
       <c r="H1057" t="inlineStr"/>
       <c r="I1057" t="inlineStr"/>
     </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover some of Austins most famous food trucks while enjoying an AR tour. Take a tour of some of the world's best known food trucks at Austins food truck experience.</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr"/>
+      <c r="C1058" t="inlineStr"/>
+      <c r="D1058" t="inlineStr"/>
+      <c r="E1058" t="inlineStr"/>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="inlineStr"/>
+      <c r="H1058" t="inlineStr"/>
+      <c r="I1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>Title: Local Foods Extravaganza</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr"/>
+      <c r="C1059" t="inlineStr"/>
+      <c r="D1059" t="inlineStr"/>
+      <c r="E1059" t="inlineStr"/>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="inlineStr"/>
+      <c r="H1059" t="inlineStr"/>
+      <c r="I1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr"/>
+      <c r="C1060" t="inlineStr"/>
+      <c r="D1060" t="inlineStr"/>
+      <c r="E1060" t="inlineStr"/>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="inlineStr"/>
+      <c r="H1060" t="inlineStr"/>
+      <c r="I1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr"/>
+      <c r="C1061" t="inlineStr"/>
+      <c r="D1061" t="inlineStr"/>
+      <c r="E1061" t="inlineStr"/>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="inlineStr"/>
+      <c r="H1061" t="inlineStr"/>
+      <c r="I1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 187190P2</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr"/>
+      <c r="C1062" t="inlineStr"/>
+      <c r="D1062" t="inlineStr"/>
+      <c r="E1062" t="inlineStr"/>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="inlineStr"/>
+      <c r="H1062" t="inlineStr"/>
+      <c r="I1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr"/>
+      <c r="C1063" t="inlineStr"/>
+      <c r="D1063" t="inlineStr"/>
+      <c r="E1063" t="inlineStr"/>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="inlineStr"/>
+      <c r="H1063" t="inlineStr"/>
+      <c r="I1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>Title: Best Signseeing of Austin</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr"/>
+      <c r="C1064" t="inlineStr"/>
+      <c r="D1064" t="inlineStr"/>
+      <c r="E1064" t="inlineStr"/>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="inlineStr"/>
+      <c r="H1064" t="inlineStr"/>
+      <c r="I1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr"/>
+      <c r="C1065" t="inlineStr"/>
+      <c r="D1065" t="inlineStr"/>
+      <c r="E1065" t="inlineStr"/>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="inlineStr"/>
+      <c r="H1065" t="inlineStr"/>
+      <c r="I1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr"/>
+      <c r="C1066" t="inlineStr"/>
+      <c r="D1066" t="inlineStr"/>
+      <c r="E1066" t="inlineStr"/>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="inlineStr"/>
+      <c r="H1066" t="inlineStr"/>
+      <c r="I1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr"/>
+      <c r="C1067" t="inlineStr"/>
+      <c r="D1067" t="inlineStr"/>
+      <c r="E1067" t="inlineStr"/>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="inlineStr"/>
+      <c r="H1067" t="inlineStr"/>
+      <c r="I1067" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
